--- a/Aide/wwwroot/AdvisingMaterial/Majors/Software Engineer/StudyPlan/2018-2019.xlsx
+++ b/Aide/wwwroot/AdvisingMaterial/Majors/Software Engineer/StudyPlan/2018-2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ibraheem\GP\Study Plans\Advising Material\SE_Plans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ib_ra\Documents\GitHub\Aide\Aide\wwwroot\AdvisingMaterial\Majors\Software Engineer\StudyPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59CC9FA-40EE-44C1-957D-007EE91B155A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB45772B-6ED2-4964-A727-B784512B233B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="791" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3107,7 +3107,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -4094,6 +4094,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4808,14 +4811,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>157313</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>324001</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>731837</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>898525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>367934</xdr:rowOff>
     </xdr:to>
@@ -4846,12 +4849,86 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2963210038" y="7934"/>
+          <a:off x="1228876" y="7934"/>
           <a:ext cx="574524" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>531266</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065B4177-39A7-4B84-9C93-7465AF04D7E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="309562" y="0"/>
+          <a:ext cx="400298" cy="395378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -11480,7 +11557,7 @@
   <dimension ref="B1:R47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L4"/>
+      <selection activeCell="H3" sqref="H3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11514,10 +11591,10 @@
       <c r="J1" s="332"/>
       <c r="K1" s="332"/>
       <c r="L1" s="332"/>
-      <c r="M1" s="332"/>
-      <c r="N1" s="332"/>
-      <c r="O1" s="332"/>
-      <c r="P1" s="332"/>
+      <c r="M1" s="333"/>
+      <c r="N1" s="333"/>
+      <c r="O1" s="333"/>
+      <c r="P1" s="333"/>
       <c r="Q1" s="134"/>
       <c r="R1" s="134"/>
     </row>
@@ -13423,7 +13500,6 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B1:P1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="K2:P2"/>
     <mergeCell ref="B3:B4"/>
@@ -13433,6 +13509,7 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:O3"/>
+    <mergeCell ref="B1:L1"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="B12:G12"/>
